--- a/test_sheets/Git-test.xlsx
+++ b/test_sheets/Git-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\cheatsheet\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B3D083E-9D08-4AD2-A443-287B9A1A4F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FA48B6-6BCD-4EFC-A3C9-8EAB3A917D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="1905" windowWidth="25635" windowHeight="21150" xr2:uid="{A40961FD-43BE-4D79-BE73-BD3A9DDA99BE}"/>
+    <workbookView xWindow="25200" yWindow="0" windowWidth="25635" windowHeight="21150" xr2:uid="{A40961FD-43BE-4D79-BE73-BD3A9DDA99BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
-  <si>
-    <t>Setup</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="206">
   <si>
     <t>git config --global user.name "Your Name"</t>
   </si>
@@ -68,9 +65,6 @@
     <t>Clone a remote repository.</t>
   </si>
   <si>
-    <t>Staging</t>
-  </si>
-  <si>
     <t>git status</t>
   </si>
   <si>
@@ -89,12 +83,6 @@
     <t>git add .</t>
   </si>
   <si>
-    <t>Add all files to the staging area.</t>
-  </si>
-  <si>
-    <t>Committing</t>
-  </si>
-  <si>
     <t>git commit -m "message"</t>
   </si>
   <si>
@@ -107,9 +95,6 @@
     <t>git commit --amend</t>
   </si>
   <si>
-    <t>Amend the last commit.</t>
-  </si>
-  <si>
     <t>Branching</t>
   </si>
   <si>
@@ -146,9 +131,6 @@
     <t>Merge another branch into the current branch.</t>
   </si>
   <si>
-    <t>Remote Repos</t>
-  </si>
-  <si>
     <t>git remote add origin &lt;url&gt;</t>
   </si>
   <si>
@@ -164,18 +146,12 @@
     <t>Show the remote repositories linked to your project.</t>
   </si>
   <si>
-    <t>Pushing</t>
-  </si>
-  <si>
     <t>git push origin &lt;branch_name&gt;</t>
   </si>
   <si>
     <t>Push changes to a remote repository.</t>
   </si>
   <si>
-    <t>Pulling</t>
-  </si>
-  <si>
     <t>git pull</t>
   </si>
   <si>
@@ -197,9 +173,6 @@
     <t>git reset --hard</t>
   </si>
   <si>
-    <t>Reset the working directory to the last commit.</t>
-  </si>
-  <si>
     <t>git checkout -- &lt;file&gt;</t>
   </si>
   <si>
@@ -212,9 +185,6 @@
     <t>git tag &lt;tag_name&gt;</t>
   </si>
   <si>
-    <t>Create a tag for a commit.</t>
-  </si>
-  <si>
     <t>#FF33CC</t>
   </si>
   <si>
@@ -224,15 +194,9 @@
     <t>Push a tag to the remote repository.</t>
   </si>
   <si>
-    <t>Logs</t>
-  </si>
-  <si>
     <t>git log</t>
   </si>
   <si>
-    <t>View commit history.</t>
-  </si>
-  <si>
     <t>#33FFC1</t>
   </si>
   <si>
@@ -245,12 +209,6 @@
     <t>git log --graph --decorate --oneline</t>
   </si>
   <si>
-    <t>View a visualized commit history with branches.</t>
-  </si>
-  <si>
-    <t>Reverting</t>
-  </si>
-  <si>
     <t>git revert &lt;commit_hash&gt;</t>
   </si>
   <si>
@@ -260,9 +218,6 @@
     <t>#FFD700</t>
   </si>
   <si>
-    <t>Stashing</t>
-  </si>
-  <si>
     <t>git stash</t>
   </si>
   <si>
@@ -275,27 +230,15 @@
     <t>git stash apply</t>
   </si>
   <si>
-    <t>Apply stashed changes.</t>
-  </si>
-  <si>
-    <t>Forking</t>
-  </si>
-  <si>
     <t>git fetch upstream</t>
   </si>
   <si>
-    <t>Fetch changes from the original repository.</t>
-  </si>
-  <si>
     <t>#4B0082</t>
   </si>
   <si>
     <t>git merge upstream/main</t>
   </si>
   <si>
-    <t>Merge upstream changes into your fork.</t>
-  </si>
-  <si>
     <t>Collaboration</t>
   </si>
   <si>
@@ -305,7 +248,510 @@
     <t>Submit a pull request on GitHub (via CLI).</t>
   </si>
   <si>
-    <t>#80</t>
+    <t>User Configuration</t>
+  </si>
+  <si>
+    <t>git config --global core.editor "editor"</t>
+  </si>
+  <si>
+    <t>Set the default text editor for Git.</t>
+  </si>
+  <si>
+    <t>git config --global color.ui auto</t>
+  </si>
+  <si>
+    <t>Enable colored output in Git commands.</t>
+  </si>
+  <si>
+    <t>Repository Management</t>
+  </si>
+  <si>
+    <t>Staging Changes</t>
+  </si>
+  <si>
+    <t>Add all changes in the current directory to the staging area.</t>
+  </si>
+  <si>
+    <t>Committing Changes</t>
+  </si>
+  <si>
+    <t>Amend the last commit with new changes.</t>
+  </si>
+  <si>
+    <t>Remote Repositories</t>
+  </si>
+  <si>
+    <t>Pushing Changes</t>
+  </si>
+  <si>
+    <t>Pulling Changes</t>
+  </si>
+  <si>
+    <t>Reset the working directory to the last commit, discarding all changes.</t>
+  </si>
+  <si>
+    <t>Create a tag for a specific commit.</t>
+  </si>
+  <si>
+    <t>Viewing Logs</t>
+  </si>
+  <si>
+    <t>View the commit history.</t>
+  </si>
+  <si>
+    <t>Visualize commit history with branches.</t>
+  </si>
+  <si>
+    <t>Reverting Changes</t>
+  </si>
+  <si>
+    <t>Stashing Changes</t>
+  </si>
+  <si>
+    <t>Apply stashed changes back to the working directory.</t>
+  </si>
+  <si>
+    <t>Fetching Changes</t>
+  </si>
+  <si>
+    <t>git fetch</t>
+  </si>
+  <si>
+    <t>Retrieve changes from a remote repository without merging.</t>
+  </si>
+  <si>
+    <t>Merging</t>
+  </si>
+  <si>
+    <t>Merge upstream changes into your branch.</t>
+  </si>
+  <si>
+    <t>#800080</t>
+  </si>
+  <si>
+    <t>Working with Remotes</t>
+  </si>
+  <si>
+    <t>git fetch origin</t>
+  </si>
+  <si>
+    <t>Fetch changes from the remote repository.</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>Push the current branch to the remote repository.</t>
+  </si>
+  <si>
+    <t>git remote rm &lt;remote_name&gt;</t>
+  </si>
+  <si>
+    <t>Remove a remote repository from the configuration.</t>
+  </si>
+  <si>
+    <t>Checking Differences</t>
+  </si>
+  <si>
+    <t>git diff</t>
+  </si>
+  <si>
+    <t>Show changes between commits, commit and working tree, etc.</t>
+  </si>
+  <si>
+    <t>#FFC300</t>
+  </si>
+  <si>
+    <t>git diff --cached</t>
+  </si>
+  <si>
+    <t>Show changes staged for the next commit.</t>
+  </si>
+  <si>
+    <t>Comparing Branches</t>
+  </si>
+  <si>
+    <t>git diff &lt;branch1&gt; &lt;branch2&gt;</t>
+  </si>
+  <si>
+    <t>Compare changes between two branches.</t>
+  </si>
+  <si>
+    <t>Cherry Picking</t>
+  </si>
+  <si>
+    <t>git cherry-pick &lt;commit_hash&gt;</t>
+  </si>
+  <si>
+    <t>Apply changes from a specific commit to the current branch.</t>
+  </si>
+  <si>
+    <t>Configuring Aliases</t>
+  </si>
+  <si>
+    <t>git config --global alias.st status</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create a shortcut for commands (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Rebasing</t>
+  </si>
+  <si>
+    <t>git rebase &lt;branch_name&gt;</t>
+  </si>
+  <si>
+    <t>Reapply commits on top of another base tip.</t>
+  </si>
+  <si>
+    <t>git rebase -i &lt;commit_hash&gt;</t>
+  </si>
+  <si>
+    <t>Start an interactive rebase from a specific commit.</t>
+  </si>
+  <si>
+    <t>Interactive Rebase</t>
+  </si>
+  <si>
+    <t>git rebase --continue</t>
+  </si>
+  <si>
+    <t>Continue after resolving conflicts during a rebase.</t>
+  </si>
+  <si>
+    <t>Reflog</t>
+  </si>
+  <si>
+    <t>git reflog</t>
+  </si>
+  <si>
+    <t>Show the reference logs of all operations.</t>
+  </si>
+  <si>
+    <t>Bisecting</t>
+  </si>
+  <si>
+    <t>git bisect start</t>
+  </si>
+  <si>
+    <t>Start the bisect process to find a specific commit.</t>
+  </si>
+  <si>
+    <t>git bisect bad &lt;commit_hash&gt;</t>
+  </si>
+  <si>
+    <t>Mark a commit as bad during the bisect process.</t>
+  </si>
+  <si>
+    <t>git bisect good &lt;commit_hash&gt;</t>
+  </si>
+  <si>
+    <t>Mark a commit as good during the bisect process.</t>
+  </si>
+  <si>
+    <t>Resetting</t>
+  </si>
+  <si>
+    <t>git reset &lt;commit_hash&gt;</t>
+  </si>
+  <si>
+    <t>Reset the current branch to a specific commit.</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>git clean -f</t>
+  </si>
+  <si>
+    <t>Remove untracked files from the working directory.</t>
+  </si>
+  <si>
+    <t>git clean -fd</t>
+  </si>
+  <si>
+    <t>Remove untracked files and directories.</t>
+  </si>
+  <si>
+    <t>Configuring Hooks</t>
+  </si>
+  <si>
+    <t>git config core.hooksPath &lt;path&gt;</t>
+  </si>
+  <si>
+    <t>Set a custom directory for Git hooks.</t>
+  </si>
+  <si>
+    <t>Graphical Representation</t>
+  </si>
+  <si>
+    <t>git log --graph</t>
+  </si>
+  <si>
+    <t>Display a graphical representation of the commit history.</t>
+  </si>
+  <si>
+    <t>Checking Configuration</t>
+  </si>
+  <si>
+    <t>git config --list</t>
+  </si>
+  <si>
+    <t>List all Git configuration settings.</t>
+  </si>
+  <si>
+    <t>Obtaining Help</t>
+  </si>
+  <si>
+    <t>git help &lt;command&gt;</t>
+  </si>
+  <si>
+    <t>Get help on a specific Git command.</t>
+  </si>
+  <si>
+    <t>GitHub CLI</t>
+  </si>
+  <si>
+    <t>gh repo create &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>Create a new repository on GitHub using the GitHub CLI.</t>
+  </si>
+  <si>
+    <t>Viewing Branches</t>
+  </si>
+  <si>
+    <t>git branch -a</t>
+  </si>
+  <si>
+    <t>List all local and remote branches.</t>
+  </si>
+  <si>
+    <t>Checking Commit History</t>
+  </si>
+  <si>
+    <t>git show &lt;commit_hash&gt;</t>
+  </si>
+  <si>
+    <t>Show details about a specific commit.</t>
+  </si>
+  <si>
+    <t>git tag -d &lt;tag_name&gt;</t>
+  </si>
+  <si>
+    <t>Delete a tag.</t>
+  </si>
+  <si>
+    <t>Listing Tags</t>
+  </si>
+  <si>
+    <t>git tag</t>
+  </si>
+  <si>
+    <t>List all tags in the repository.</t>
+  </si>
+  <si>
+    <t>Changing Branch</t>
+  </si>
+  <si>
+    <t>git switch &lt;branch_name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Switch to another branch (alternative to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Creating Branch</t>
+  </si>
+  <si>
+    <t>git switch -b &lt;new_branch&gt;</t>
+  </si>
+  <si>
+    <t>Create a new branch and switch to it.</t>
+  </si>
+  <si>
+    <t>Rebasing Interactive</t>
+  </si>
+  <si>
+    <t>git rebase -i HEAD~&lt;number&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start an interactive rebase for the last </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;number&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of commits.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pushing Tags</t>
+  </si>
+  <si>
+    <t>git push origin --tags</t>
+  </si>
+  <si>
+    <t>Push all tags to the remote repository.</t>
+  </si>
+  <si>
+    <t>Squashing Commits</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Squash the last </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;number&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of commits into one.</t>
+    </r>
+  </si>
+  <si>
+    <t>Creating a Patch</t>
+  </si>
+  <si>
+    <t>git format-patch &lt;commit_hash&gt;</t>
+  </si>
+  <si>
+    <t>Create a patch file for a specific commit.</t>
+  </si>
+  <si>
+    <t>Applying a Patch</t>
+  </si>
+  <si>
+    <t>git apply &lt;patch_file&gt;</t>
+  </si>
+  <si>
+    <t>Apply changes from a patch file.</t>
+  </si>
+  <si>
+    <t>View Configuration</t>
+  </si>
+  <si>
+    <t>git config --global --edit</t>
+  </si>
+  <si>
+    <t>Open the global Git configuration file in the default text editor.</t>
+  </si>
+  <si>
+    <t>Adding a Remote</t>
+  </si>
+  <si>
+    <t>git remote add upstream &lt;url&gt;</t>
+  </si>
+  <si>
+    <t>Add a remote repository for collaboration.</t>
+  </si>
+  <si>
+    <t>Fetch changes from the upstream repository.</t>
+  </si>
+  <si>
+    <t>Pulling from Upstream</t>
+  </si>
+  <si>
+    <t>git pull upstream &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Pull changes from the upstream branch into your local branch.</t>
+  </si>
+  <si>
+    <t>Recovering Lost Commits</t>
+  </si>
+  <si>
+    <t>git reflog expire --expire=now --all</t>
+  </si>
+  <si>
+    <t>Remove old reflog entries.</t>
+  </si>
+  <si>
+    <t>git reflog delete</t>
+  </si>
+  <si>
+    <t>Delete reflog entries.</t>
   </si>
 </sst>
 </file>
@@ -699,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A09D60-B553-433C-AAA5-B418267B202F}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -713,452 +1159,1040 @@
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="75">
+    <row r="1" spans="1:4" ht="45">
       <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="45">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="89.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
       <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="75">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="75">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45">
       <c r="A11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="51">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45">
+      <c r="A17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="75">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="90">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="45">
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="105">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="90">
-      <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="90">
-      <c r="A18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="30">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="90">
-      <c r="A20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="D25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30">
+      <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45">
-      <c r="A21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="30">
+      <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45">
-      <c r="A22" s="2" t="s">
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30">
+      <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60">
+      <c r="A29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="75">
-      <c r="A23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="30" spans="1:4" ht="45">
+      <c r="A30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45">
-      <c r="A24" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="45">
+      <c r="A31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45">
+      <c r="A32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45">
+      <c r="A33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30">
+      <c r="A34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="60">
+      <c r="A35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="60">
+      <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="60">
+      <c r="A37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60">
+      <c r="A38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="60">
+      <c r="A39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60">
+      <c r="A40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45">
+      <c r="A41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45">
+      <c r="A42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30">
+      <c r="A43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="45">
+      <c r="A44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="45">
+      <c r="A45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30">
+      <c r="A46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="45">
+      <c r="A47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45">
+      <c r="A48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45">
+      <c r="A49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="45">
+      <c r="A50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="45">
+      <c r="A51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30">
+      <c r="A52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="45">
+      <c r="A53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="60">
+      <c r="A54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="60">
+      <c r="A55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30">
+      <c r="A56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="45">
+      <c r="A57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="45">
+      <c r="A58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="60">
+      <c r="A59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="45">
+      <c r="A62" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30">
+      <c r="A63" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="60">
+      <c r="A64" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30">
+      <c r="A65" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="60">
+      <c r="A66" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30">
+      <c r="A67" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30">
+      <c r="A68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="45">
+      <c r="A69" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30">
+      <c r="A70" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30">
+      <c r="A71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="75">
-      <c r="A25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="120">
-      <c r="A26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="135">
-      <c r="A27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="90">
-      <c r="A28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45">
-      <c r="A29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="90">
-      <c r="A30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="90">
-      <c r="A31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="90">
-      <c r="A32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>89</v>
+      <c r="C71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="60">
+      <c r="A72" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="60">
+      <c r="A73" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="60">
+      <c r="A74" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
